--- a/Final_results/INSEE_all_2020.xlsx
+++ b/Final_results/INSEE_all_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -762,7 +762,7 @@
     <t xml:space="preserve">2020-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 January 2020. Using ONLY information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 January 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 January 2020.</t>
@@ -890,19 +890,22 @@
     <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 August 2020. Using ONLY information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 August 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (50)</t>
+    <t xml:space="preserve">+18.0 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+17.8 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+17.0 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+17.5 (60)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
@@ -929,71 +932,74 @@
     <t xml:space="preserve">2020-10-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 07 October 2020. Using ONLY information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 07 October 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 07 October 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">
++17.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++16.0 (85)</t>
+  </si>
+  <si>
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
     <t xml:space="preserve">+16.0 (85)</t>
   </si>
   <si>
+    <t xml:space="preserve">+18.0 (90)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 08 November 2020. Using ONLY information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 08 November 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.5 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.5 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (40)</t>
-  </si>
-  <si>
     <t xml:space="preserve">
--4.0 (40)</t>
+-4.5 (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.2 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.2 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (70)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 13 December 2020. Using ONLY information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 13 December 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.5 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (70)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-2.5 (75)</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (70)</t>
+    <t xml:space="preserve">-3.5 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.2 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-12</t>
@@ -7931,91 +7937,91 @@
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>70</v>
+      </c>
+      <c r="K61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>65</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S61" t="n">
         <v>80</v>
       </c>
-      <c r="E61" t="s">
+      <c r="T61" t="s">
         <v>148</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="U61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V61" t="n">
         <v>80</v>
       </c>
-      <c r="H61" t="s">
+      <c r="W61" t="s">
         <v>148</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>80</v>
-      </c>
-      <c r="K61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>75</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="X61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s">
         <v>59</v>
       </c>
-      <c r="O61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P61" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="AA61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s">
         <v>59</v>
       </c>
-      <c r="R61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>75</v>
-      </c>
-      <c r="T61" t="s">
+      <c r="AD61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s">
         <v>59</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V61" t="n">
-        <v>75</v>
-      </c>
-      <c r="W61" t="s">
-        <v>59</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -8614,102 +8620,102 @@
         <v>223</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
         <v>224</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H68" t="s">
         <v>224</v>
       </c>
       <c r="I68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K68" t="s">
         <v>224</v>
       </c>
       <c r="L68" t="n">
-        <v>16</v>
+        <v>17.8</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N68" t="s">
         <v>225</v>
       </c>
       <c r="O68" t="n">
-        <v>16</v>
+        <v>17.8</v>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q68" t="s">
         <v>225</v>
       </c>
       <c r="R68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S68" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="T68" t="s">
         <v>226</v>
       </c>
       <c r="U68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="W68" t="s">
         <v>226</v>
       </c>
       <c r="X68" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA68" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AD68" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C69" t="n">
         <v>17</v>
@@ -8718,7 +8724,7 @@
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F69" t="n">
         <v>17</v>
@@ -8727,7 +8733,7 @@
         <v>75</v>
       </c>
       <c r="H69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I69" t="n">
         <v>17</v>
@@ -8736,7 +8742,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L69" t="n">
         <v>17</v>
@@ -8745,7 +8751,7 @@
         <v>85</v>
       </c>
       <c r="N69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O69" t="n">
         <v>17</v>
@@ -8754,7 +8760,7 @@
         <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R69" t="n">
         <v>17</v>
@@ -8763,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U69" t="n">
         <v>17</v>
@@ -8772,7 +8778,7 @@
         <v>80</v>
       </c>
       <c r="W69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X69" t="n">
         <v>17</v>
@@ -8781,7 +8787,7 @@
         <v>65</v>
       </c>
       <c r="Z69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -8790,7 +8796,7 @@
         <v>65</v>
       </c>
       <c r="AC69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD69" t="n">
         <v>17</v>
@@ -8799,309 +8805,309 @@
         <v>65</v>
       </c>
       <c r="AF69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F70" t="n">
         <v>16</v>
       </c>
       <c r="G70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L70" t="n">
         <v>16</v>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O70" t="n">
         <v>16</v>
       </c>
       <c r="P70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
       </c>
       <c r="S70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T70" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
       </c>
       <c r="V70" t="n">
+        <v>85</v>
+      </c>
+      <c r="W70" t="s">
+        <v>239</v>
+      </c>
+      <c r="X70" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y70" t="n">
         <v>90</v>
       </c>
-      <c r="W70" t="s">
-        <v>235</v>
-      </c>
-      <c r="X70" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>85</v>
-      </c>
       <c r="Z70" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AA70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AD70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF70" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C71" t="n">
-        <v>-3</v>
+        <v>-4.5</v>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="G71" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I71" t="n">
         <v>-4.5</v>
       </c>
       <c r="J71" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L71" t="n">
         <v>-4.2</v>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O71" t="n">
         <v>-4.2</v>
       </c>
       <c r="P71" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q71" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="R71" t="n">
-        <v>-5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="S71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T71" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="U71" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="V71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W71" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="X71" t="n">
         <v>-4</v>
       </c>
       <c r="Y71" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Z71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AA71" t="n">
         <v>-4</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AC71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AD71" t="n">
         <v>-4</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AF71" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F72" t="n">
         <v>-2.5</v>
       </c>
       <c r="G72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I72" t="n">
         <v>-2.5</v>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="M72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O72" t="n">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="P72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R72" t="n">
-        <v>-4</v>
+        <v>-3.2</v>
       </c>
       <c r="S72" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="T72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U72" t="n">
-        <v>-4</v>
+        <v>-3.2</v>
       </c>
       <c r="V72" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="W72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X72" t="n">
         <v>-2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C73" t="n">
         <v>-4</v>
@@ -9110,7 +9116,7 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
         <v>-4</v>
@@ -9119,7 +9125,7 @@
         <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I73" t="n">
         <v>-4</v>
@@ -9128,7 +9134,7 @@
         <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9137,7 +9143,7 @@
         <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9146,7 +9152,7 @@
         <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9155,7 +9161,7 @@
         <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9164,7 +9170,7 @@
         <v>60</v>
       </c>
       <c r="W73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9173,7 +9179,7 @@
         <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9182,7 +9188,7 @@
         <v>75</v>
       </c>
       <c r="AC73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9191,15 +9197,15 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C74" t="n">
         <v>0.1</v>
@@ -9235,7 +9241,7 @@
         <v>40</v>
       </c>
       <c r="N74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O74" t="n">
         <v>-0.1</v>
@@ -9244,7 +9250,7 @@
         <v>40</v>
       </c>
       <c r="Q74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R74" t="n">
         <v>0.1</v>
@@ -9294,10 +9300,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C75" t="n">
         <v>0.1</v>
@@ -9306,7 +9312,7 @@
         <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F75" t="n">
         <v>0.1</v>
@@ -9351,7 +9357,7 @@
         <v>65</v>
       </c>
       <c r="T75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U75" t="n">
         <v>0.1</v>
@@ -9369,7 +9375,7 @@
         <v>65</v>
       </c>
       <c r="Z75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA75" t="n">
         <v>-0.1</v>
@@ -9378,7 +9384,7 @@
         <v>65</v>
       </c>
       <c r="AC75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD75" t="n">
         <v>-0.1</v>
@@ -9387,15 +9393,15 @@
         <v>65</v>
       </c>
       <c r="AF75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C76" t="n">
         <v>0.2</v>
@@ -9490,10 +9496,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C77" t="n">
         <v>0.3</v>
@@ -9529,7 +9535,7 @@
         <v>65</v>
       </c>
       <c r="N77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O77" t="n">
         <v>0.7</v>
@@ -9538,7 +9544,7 @@
         <v>65</v>
       </c>
       <c r="Q77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R77" t="n">
         <v>0.2</v>
@@ -9588,10 +9594,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C78" t="n">
         <v>0.8</v>
@@ -9600,7 +9606,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F78" t="n">
         <v>0.8</v>
@@ -9609,7 +9615,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I78" t="n">
         <v>0.8</v>
@@ -9618,7 +9624,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L78" t="n">
         <v>1.1</v>
@@ -9627,7 +9633,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O78" t="n">
         <v>1.1</v>
@@ -9636,7 +9642,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9645,7 +9651,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9654,7 +9660,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X78" t="n">
         <v>0.8</v>
@@ -9663,7 +9669,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA78" t="n">
         <v>0.8</v>
@@ -9672,7 +9678,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9681,15 +9687,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9698,7 +9704,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9707,7 +9713,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9716,7 +9722,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L79" t="n">
         <v>0.9</v>
@@ -9725,7 +9731,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O79" t="n">
         <v>0.9</v>
@@ -9734,7 +9740,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R79" t="n">
         <v>0.8</v>
@@ -9743,7 +9749,7 @@
         <v>85</v>
       </c>
       <c r="T79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U79" t="n">
         <v>0.8</v>
@@ -9752,7 +9758,7 @@
         <v>85</v>
       </c>
       <c r="W79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X79" t="n">
         <v>0.9</v>
@@ -9761,7 +9767,7 @@
         <v>85</v>
       </c>
       <c r="Z79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA79" t="n">
         <v>0.9</v>
@@ -9770,7 +9776,7 @@
         <v>85</v>
       </c>
       <c r="AC79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD79" t="n">
         <v>0.9</v>
@@ -9779,15 +9785,15 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" t="n">
         <v>2.1</v>
@@ -9796,7 +9802,7 @@
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F80" t="n">
         <v>2.1</v>
@@ -9805,7 +9811,7 @@
         <v>85</v>
       </c>
       <c r="H80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I80" t="n">
         <v>2.1</v>
@@ -9814,7 +9820,7 @@
         <v>85</v>
       </c>
       <c r="K80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L80" t="n">
         <v>2.6</v>
@@ -9823,7 +9829,7 @@
         <v>80</v>
       </c>
       <c r="N80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O80" t="n">
         <v>2.6</v>
@@ -9832,7 +9838,7 @@
         <v>80</v>
       </c>
       <c r="Q80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R80" t="n">
         <v>2.4</v>
@@ -9841,7 +9847,7 @@
         <v>85</v>
       </c>
       <c r="T80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U80" t="n">
         <v>2.4</v>
@@ -9850,7 +9856,7 @@
         <v>85</v>
       </c>
       <c r="W80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X80" t="n">
         <v>2.1</v>
@@ -9859,7 +9865,7 @@
         <v>75</v>
       </c>
       <c r="Z80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA80" t="n">
         <v>2.1</v>
@@ -9868,7 +9874,7 @@
         <v>75</v>
       </c>
       <c r="AC80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD80" t="n">
         <v>2.1</v>
@@ -9877,15 +9883,15 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C81" t="n">
         <v>2.7</v>
@@ -9894,7 +9900,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" t="n">
         <v>2.7</v>
@@ -9903,7 +9909,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I81" t="n">
         <v>2.7</v>
@@ -9912,7 +9918,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L81" t="n">
         <v>2.3</v>
@@ -9921,7 +9927,7 @@
         <v>90</v>
       </c>
       <c r="N81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O81" t="n">
         <v>2.3</v>
@@ -9930,7 +9936,7 @@
         <v>90</v>
       </c>
       <c r="Q81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9939,7 +9945,7 @@
         <v>85</v>
       </c>
       <c r="T81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9948,7 +9954,7 @@
         <v>85</v>
       </c>
       <c r="W81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X81" t="n">
         <v>2.7</v>
@@ -9957,7 +9963,7 @@
         <v>85</v>
       </c>
       <c r="Z81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA81" t="n">
         <v>2.7</v>
@@ -9966,7 +9972,7 @@
         <v>85</v>
       </c>
       <c r="AC81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AD81" t="n">
         <v>2.7</v>
@@ -9975,15 +9981,15 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9992,7 +9998,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -10001,7 +10007,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -10010,7 +10016,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -10019,7 +10025,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -10028,7 +10034,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R82" t="n">
         <v>2.6</v>
@@ -10037,7 +10043,7 @@
         <v>85</v>
       </c>
       <c r="T82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U82" t="n">
         <v>2.6</v>
@@ -10046,7 +10052,7 @@
         <v>85</v>
       </c>
       <c r="W82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="X82" t="n">
         <v>2.6</v>
@@ -10055,7 +10061,7 @@
         <v>85</v>
       </c>
       <c r="Z82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA82" t="n">
         <v>2.6</v>
@@ -10064,7 +10070,7 @@
         <v>85</v>
       </c>
       <c r="AC82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD82" t="n">
         <v>2.6</v>
@@ -10073,15 +10079,15 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C83" t="n">
         <v>0.5</v>
@@ -10117,7 +10123,7 @@
         <v>75</v>
       </c>
       <c r="N83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O83" t="n">
         <v>0.7</v>
@@ -10126,7 +10132,7 @@
         <v>75</v>
       </c>
       <c r="Q83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R83" t="n">
         <v>0.7</v>
@@ -10135,7 +10141,7 @@
         <v>75</v>
       </c>
       <c r="T83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -10144,7 +10150,7 @@
         <v>75</v>
       </c>
       <c r="W83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X83" t="n">
         <v>0.5</v>
@@ -10176,10 +10182,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C84" t="n">
         <v>0.7</v>
@@ -10188,7 +10194,7 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F84" t="n">
         <v>0.7</v>
@@ -10197,7 +10203,7 @@
         <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I84" t="n">
         <v>0.7</v>
@@ -10206,7 +10212,7 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L84" t="n">
         <v>0.7</v>
@@ -10215,7 +10221,7 @@
         <v>80</v>
       </c>
       <c r="N84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
@@ -10224,7 +10230,7 @@
         <v>80</v>
       </c>
       <c r="Q84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R84" t="n">
         <v>0.6</v>
@@ -10233,7 +10239,7 @@
         <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U84" t="n">
         <v>0.6</v>
@@ -10242,7 +10248,7 @@
         <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -10274,10 +10280,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C85" t="n">
         <v>0.5</v>
@@ -10286,7 +10292,7 @@
         <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F85" t="n">
         <v>0.5</v>
@@ -10295,7 +10301,7 @@
         <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I85" t="n">
         <v>0.5</v>
@@ -10304,7 +10310,7 @@
         <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L85" t="n">
         <v>0.6</v>
@@ -10349,7 +10355,7 @@
         <v>70</v>
       </c>
       <c r="Z85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA85" t="n">
         <v>0.5</v>
@@ -10358,7 +10364,7 @@
         <v>70</v>
       </c>
       <c r="AC85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD85" t="n">
         <v>0.5</v>
@@ -10367,15 +10373,15 @@
         <v>70</v>
       </c>
       <c r="AF85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C86" t="n">
         <v>0.3</v>
@@ -10470,10 +10476,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C87" t="n">
         <v>0.2</v>
@@ -10482,7 +10488,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F87" t="n">
         <v>0.2</v>
@@ -10491,7 +10497,7 @@
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I87" t="n">
         <v>0.2</v>
@@ -10500,7 +10506,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L87" t="n">
         <v>0.3</v>
@@ -10509,7 +10515,7 @@
         <v>60</v>
       </c>
       <c r="N87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O87" t="n">
         <v>0.3</v>
@@ -10527,7 +10533,7 @@
         <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10536,7 +10542,7 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
@@ -10545,7 +10551,7 @@
         <v>50</v>
       </c>
       <c r="Z87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10554,7 +10560,7 @@
         <v>50</v>
       </c>
       <c r="AC87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10563,15 +10569,15 @@
         <v>50</v>
       </c>
       <c r="AF87" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C88" t="n">
         <v>0.2</v>
@@ -10643,7 +10649,7 @@
         <v>55</v>
       </c>
       <c r="Z88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10652,7 +10658,7 @@
         <v>55</v>
       </c>
       <c r="AC88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10661,15 +10667,15 @@
         <v>55</v>
       </c>
       <c r="AF88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -10678,7 +10684,7 @@
         <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -10687,7 +10693,7 @@
         <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -10696,7 +10702,7 @@
         <v>50</v>
       </c>
       <c r="K89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L89" t="n">
         <v>0.1</v>
@@ -10705,7 +10711,7 @@
         <v>55</v>
       </c>
       <c r="N89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O89" t="n">
         <v>0.1</v>
@@ -10714,7 +10720,7 @@
         <v>55</v>
       </c>
       <c r="Q89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R89" t="n">
         <v>0.2</v>
@@ -10723,7 +10729,7 @@
         <v>45</v>
       </c>
       <c r="T89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U89" t="n">
         <v>0.2</v>
@@ -10732,7 +10738,7 @@
         <v>45</v>
       </c>
       <c r="W89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X89" t="n">
         <v>0.2</v>
@@ -10764,10 +10770,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10862,10 +10868,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10960,10 +10966,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -11058,10 +11064,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C93" t="n">
         <v>0.2</v>
@@ -11156,10 +11162,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -11168,7 +11174,7 @@
         <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F94" t="n">
         <v>0.2</v>
@@ -11213,7 +11219,7 @@
         <v>85</v>
       </c>
       <c r="T94" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U94" t="n">
         <v>0.2</v>
@@ -11222,7 +11228,7 @@
         <v>85</v>
       </c>
       <c r="W94" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X94" t="n">
         <v>0.2</v>
@@ -11254,10 +11260,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C95" t="n">
         <v>-0.1</v>
@@ -11266,7 +11272,7 @@
         <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F95" t="n">
         <v>-0.1</v>
@@ -11275,7 +11281,7 @@
         <v>65</v>
       </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I95" t="n">
         <v>-0.1</v>
@@ -11284,7 +11290,7 @@
         <v>65</v>
       </c>
       <c r="K95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L95" t="n">
         <v>-0.1</v>
@@ -11293,7 +11299,7 @@
         <v>55</v>
       </c>
       <c r="N95" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O95" t="n">
         <v>-0.1</v>
@@ -11302,7 +11308,7 @@
         <v>55</v>
       </c>
       <c r="Q95" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R95" t="n">
         <v>-0.1</v>
@@ -11311,7 +11317,7 @@
         <v>60</v>
       </c>
       <c r="T95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U95" t="n">
         <v>-0.1</v>
@@ -11320,7 +11326,7 @@
         <v>60</v>
       </c>
       <c r="W95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X95" t="n">
         <v>-0.1</v>
@@ -11329,7 +11335,7 @@
         <v>65</v>
       </c>
       <c r="Z95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.1</v>
@@ -11338,7 +11344,7 @@
         <v>65</v>
       </c>
       <c r="AC95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD95" t="n">
         <v>-0.1</v>
@@ -11347,15 +11353,15 @@
         <v>65</v>
       </c>
       <c r="AF95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C96" t="n">
         <v>-0.1</v>
@@ -11364,7 +11370,7 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F96" t="n">
         <v>-0.1</v>
@@ -11373,7 +11379,7 @@
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I96" t="n">
         <v>-0.1</v>
@@ -11382,7 +11388,7 @@
         <v>65</v>
       </c>
       <c r="K96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L96" t="n">
         <v>-0.1</v>
@@ -11391,7 +11397,7 @@
         <v>65</v>
       </c>
       <c r="N96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O96" t="n">
         <v>-0.1</v>
@@ -11400,7 +11406,7 @@
         <v>65</v>
       </c>
       <c r="Q96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R96" t="n">
         <v>-0.1</v>
@@ -11409,7 +11415,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U96" t="n">
         <v>-0.1</v>
@@ -11418,7 +11424,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X96" t="n">
         <v>-0.1</v>
@@ -11427,7 +11433,7 @@
         <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.1</v>
@@ -11436,7 +11442,7 @@
         <v>65</v>
       </c>
       <c r="AC96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.1</v>
@@ -11445,15 +11451,15 @@
         <v>65</v>
       </c>
       <c r="AF96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C97" t="n">
         <v>0.1</v>
@@ -11489,7 +11495,7 @@
         <v>65</v>
       </c>
       <c r="N97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" t="n">
         <v>-0.1</v>
@@ -11498,7 +11504,7 @@
         <v>65</v>
       </c>
       <c r="Q97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R97" t="n">
         <v>-0.1</v>
@@ -11507,7 +11513,7 @@
         <v>65</v>
       </c>
       <c r="T97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U97" t="n">
         <v>-0.1</v>
@@ -11516,7 +11522,7 @@
         <v>65</v>
       </c>
       <c r="W97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X97" t="n">
         <v>0.1</v>
@@ -11548,10 +11554,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C98" t="n">
         <v>0.2</v>
@@ -11646,10 +11652,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11744,10 +11750,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
@@ -11842,10 +11848,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11917,7 +11923,7 @@
         <v>65</v>
       </c>
       <c r="Z101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA101" t="n">
         <v>-0.1</v>
@@ -11926,7 +11932,7 @@
         <v>65</v>
       </c>
       <c r="AC101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD101" t="n">
         <v>-0.1</v>
@@ -11935,15 +11941,15 @@
         <v>65</v>
       </c>
       <c r="AF101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -11997,7 +12003,7 @@
         <v>70</v>
       </c>
       <c r="T102" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -12006,7 +12012,7 @@
         <v>70</v>
       </c>
       <c r="W102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X102" t="n">
         <v>0.1</v>
@@ -12015,7 +12021,7 @@
         <v>70</v>
       </c>
       <c r="Z102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1</v>
@@ -12024,7 +12030,7 @@
         <v>70</v>
       </c>
       <c r="AC102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AD102" t="n">
         <v>0.1</v>
@@ -12033,15 +12039,15 @@
         <v>70</v>
       </c>
       <c r="AF102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -12050,7 +12056,7 @@
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -12059,7 +12065,7 @@
         <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -12068,7 +12074,7 @@
         <v>70</v>
       </c>
       <c r="K103" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -12077,7 +12083,7 @@
         <v>75</v>
       </c>
       <c r="N103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O103" t="n">
         <v>0.1</v>
@@ -12086,7 +12092,7 @@
         <v>75</v>
       </c>
       <c r="Q103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R103" t="n">
         <v>0.1</v>
@@ -12136,10 +12142,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -12175,7 +12181,7 @@
         <v>65</v>
       </c>
       <c r="N104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O104" t="n">
         <v>-0.1</v>
@@ -12184,7 +12190,7 @@
         <v>65</v>
       </c>
       <c r="Q104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -12211,7 +12217,7 @@
         <v>55</v>
       </c>
       <c r="Z104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA104" t="n">
         <v>0.1</v>
@@ -12220,7 +12226,7 @@
         <v>55</v>
       </c>
       <c r="AC104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AD104" t="n">
         <v>0.1</v>
@@ -12229,15 +12235,15 @@
         <v>55</v>
       </c>
       <c r="AF104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -12246,7 +12252,7 @@
         <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -12255,7 +12261,7 @@
         <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -12264,7 +12270,7 @@
         <v>75</v>
       </c>
       <c r="K105" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12291,7 +12297,7 @@
         <v>65</v>
       </c>
       <c r="T105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U105" t="n">
         <v>-0.1</v>
@@ -12300,7 +12306,7 @@
         <v>65</v>
       </c>
       <c r="W105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
@@ -12332,10 +12338,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12344,7 +12350,7 @@
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -12353,7 +12359,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -12362,7 +12368,7 @@
         <v>70</v>
       </c>
       <c r="K106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -12389,7 +12395,7 @@
         <v>70</v>
       </c>
       <c r="T106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12398,7 +12404,7 @@
         <v>70</v>
       </c>
       <c r="W106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12407,7 +12413,7 @@
         <v>70</v>
       </c>
       <c r="Z106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12416,7 +12422,7 @@
         <v>70</v>
       </c>
       <c r="AC106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12425,15 +12431,15 @@
         <v>70</v>
       </c>
       <c r="AF106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C107" t="n">
         <v>-0.1</v>
@@ -12442,7 +12448,7 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F107" t="n">
         <v>-0.1</v>
@@ -12451,7 +12457,7 @@
         <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I107" t="n">
         <v>-0.1</v>
@@ -12460,7 +12466,7 @@
         <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L107" t="n">
         <v>-0.1</v>
@@ -12469,7 +12475,7 @@
         <v>70</v>
       </c>
       <c r="N107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O107" t="n">
         <v>-0.1</v>
@@ -12478,7 +12484,7 @@
         <v>70</v>
       </c>
       <c r="Q107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R107" t="n">
         <v>-0.1</v>
@@ -12487,7 +12493,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U107" t="n">
         <v>-0.1</v>
@@ -12496,7 +12502,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X107" t="n">
         <v>-0.1</v>
@@ -12505,7 +12511,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA107" t="n">
         <v>-0.1</v>
@@ -12514,7 +12520,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD107" t="n">
         <v>-0.1</v>
@@ -12523,15 +12529,15 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12540,7 +12546,7 @@
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -12549,7 +12555,7 @@
         <v>75</v>
       </c>
       <c r="H108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -12558,7 +12564,7 @@
         <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L108" t="n">
         <v>-0.1</v>
@@ -12567,7 +12573,7 @@
         <v>80</v>
       </c>
       <c r="N108" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O108" t="n">
         <v>-0.1</v>
@@ -12576,7 +12582,7 @@
         <v>80</v>
       </c>
       <c r="Q108" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -12585,7 +12591,7 @@
         <v>75</v>
       </c>
       <c r="T108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -12594,7 +12600,7 @@
         <v>75</v>
       </c>
       <c r="W108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X108" t="n">
         <v>-0.1</v>
@@ -12603,7 +12609,7 @@
         <v>70</v>
       </c>
       <c r="Z108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA108" t="n">
         <v>-0.1</v>
@@ -12612,7 +12618,7 @@
         <v>70</v>
       </c>
       <c r="AC108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD108" t="n">
         <v>-0.1</v>
@@ -12621,15 +12627,15 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C109" t="n">
         <v>-0.1</v>
@@ -12638,7 +12644,7 @@
         <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1</v>
@@ -12647,7 +12653,7 @@
         <v>70</v>
       </c>
       <c r="H109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I109" t="n">
         <v>-0.1</v>
@@ -12656,7 +12662,7 @@
         <v>70</v>
       </c>
       <c r="K109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -12683,7 +12689,7 @@
         <v>70</v>
       </c>
       <c r="T109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U109" t="n">
         <v>-0.1</v>
@@ -12692,7 +12698,7 @@
         <v>70</v>
       </c>
       <c r="W109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="X109" t="n">
         <v>-0.1</v>
@@ -12701,7 +12707,7 @@
         <v>75</v>
       </c>
       <c r="Z109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA109" t="n">
         <v>-0.1</v>
@@ -12710,7 +12716,7 @@
         <v>75</v>
       </c>
       <c r="AC109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD109" t="n">
         <v>-0.1</v>
@@ -12719,15 +12725,15 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B110" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -12822,10 +12828,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B111" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12861,7 +12867,7 @@
         <v>70</v>
       </c>
       <c r="N111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O111" t="n">
         <v>0.1</v>
@@ -12920,10 +12926,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B112" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -13018,10 +13024,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -13116,10 +13122,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C114" t="n">
         <v>0.1</v>
@@ -13155,7 +13161,7 @@
         <v>75</v>
       </c>
       <c r="N114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -13164,7 +13170,7 @@
         <v>75</v>
       </c>
       <c r="Q114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R114" t="n">
         <v>0.1</v>
@@ -13191,7 +13197,7 @@
         <v>60</v>
       </c>
       <c r="Z114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -13214,10 +13220,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13253,7 +13259,7 @@
         <v>75</v>
       </c>
       <c r="N115" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -13262,7 +13268,7 @@
         <v>75</v>
       </c>
       <c r="Q115" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R115" t="n">
         <v>0.1</v>
@@ -13271,7 +13277,7 @@
         <v>70</v>
       </c>
       <c r="T115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U115" t="n">
         <v>0.1</v>
@@ -13280,7 +13286,7 @@
         <v>70</v>
       </c>
       <c r="W115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X115" t="n">
         <v>0.1</v>
@@ -13289,7 +13295,7 @@
         <v>60</v>
       </c>
       <c r="Z115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA115" t="n">
         <v>0.1</v>
@@ -13312,10 +13318,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C116" t="n">
         <v>-0.2</v>
@@ -13324,7 +13330,7 @@
         <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F116" t="n">
         <v>-0.2</v>
@@ -13333,7 +13339,7 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I116" t="n">
         <v>-0.2</v>
@@ -13342,7 +13348,7 @@
         <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L116" t="n">
         <v>-0.1</v>
@@ -13351,7 +13357,7 @@
         <v>75</v>
       </c>
       <c r="N116" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O116" t="n">
         <v>-0.1</v>
@@ -13360,7 +13366,7 @@
         <v>75</v>
       </c>
       <c r="Q116" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R116" t="n">
         <v>-0.1</v>
@@ -13369,7 +13375,7 @@
         <v>65</v>
       </c>
       <c r="T116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U116" t="n">
         <v>-0.1</v>
@@ -13378,7 +13384,7 @@
         <v>65</v>
       </c>
       <c r="W116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X116" t="n">
         <v>-0.1</v>
@@ -13387,7 +13393,7 @@
         <v>65</v>
       </c>
       <c r="Z116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.1</v>
@@ -13396,7 +13402,7 @@
         <v>65</v>
       </c>
       <c r="AC116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD116" t="n">
         <v>-0.1</v>
@@ -13405,15 +13411,15 @@
         <v>65</v>
       </c>
       <c r="AF116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B117" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C117" t="n">
         <v>0.1</v>
@@ -13449,7 +13455,7 @@
         <v>60</v>
       </c>
       <c r="N117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O117" t="n">
         <v>-0.1</v>
@@ -13458,7 +13464,7 @@
         <v>60</v>
       </c>
       <c r="Q117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -13485,7 +13491,7 @@
         <v>70</v>
       </c>
       <c r="Z117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA117" t="n">
         <v>-0.1</v>
@@ -13494,7 +13500,7 @@
         <v>70</v>
       </c>
       <c r="AC117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD117" t="n">
         <v>-0.1</v>
@@ -13503,15 +13509,15 @@
         <v>70</v>
       </c>
       <c r="AF117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C118" t="n">
         <v>-0.2</v>
@@ -13520,7 +13526,7 @@
         <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F118" t="n">
         <v>-0.2</v>
@@ -13529,7 +13535,7 @@
         <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I118" t="n">
         <v>-0.2</v>
@@ -13538,7 +13544,7 @@
         <v>75</v>
       </c>
       <c r="K118" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L118" t="n">
         <v>-0.1</v>
@@ -13547,7 +13553,7 @@
         <v>75</v>
       </c>
       <c r="N118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O118" t="n">
         <v>-0.1</v>
@@ -13556,7 +13562,7 @@
         <v>75</v>
       </c>
       <c r="Q118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R118" t="n">
         <v>-0.1</v>
@@ -13565,7 +13571,7 @@
         <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U118" t="n">
         <v>-0.1</v>
@@ -13574,7 +13580,7 @@
         <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X118" t="n">
         <v>-0.1</v>
@@ -13583,7 +13589,7 @@
         <v>75</v>
       </c>
       <c r="Z118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA118" t="n">
         <v>-0.1</v>
@@ -13592,7 +13598,7 @@
         <v>75</v>
       </c>
       <c r="AC118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD118" t="n">
         <v>-0.1</v>
@@ -13601,15 +13607,15 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C119" t="n">
         <v>-0.1</v>
@@ -13618,7 +13624,7 @@
         <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F119" t="n">
         <v>-0.1</v>
@@ -13627,7 +13633,7 @@
         <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I119" t="n">
         <v>-0.1</v>
@@ -13636,7 +13642,7 @@
         <v>65</v>
       </c>
       <c r="K119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L119" t="n">
         <v>-0.1</v>
@@ -13645,7 +13651,7 @@
         <v>65</v>
       </c>
       <c r="N119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O119" t="n">
         <v>-0.1</v>
@@ -13654,7 +13660,7 @@
         <v>65</v>
       </c>
       <c r="Q119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R119" t="n">
         <v>-0.1</v>
@@ -13663,7 +13669,7 @@
         <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U119" t="n">
         <v>-0.1</v>
@@ -13672,7 +13678,7 @@
         <v>65</v>
       </c>
       <c r="W119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X119" t="n">
         <v>-0.1</v>
@@ -13681,7 +13687,7 @@
         <v>65</v>
       </c>
       <c r="Z119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.1</v>
@@ -13690,7 +13696,7 @@
         <v>65</v>
       </c>
       <c r="AC119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD119" t="n">
         <v>-0.1</v>
@@ -13699,15 +13705,15 @@
         <v>65</v>
       </c>
       <c r="AF119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C120" t="n">
         <v>-0.1</v>
@@ -13716,7 +13722,7 @@
         <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F120" t="n">
         <v>-0.1</v>
@@ -13725,7 +13731,7 @@
         <v>75</v>
       </c>
       <c r="H120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I120" t="n">
         <v>-0.1</v>
@@ -13734,7 +13740,7 @@
         <v>75</v>
       </c>
       <c r="K120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L120" t="n">
         <v>-0.1</v>
@@ -13743,7 +13749,7 @@
         <v>65</v>
       </c>
       <c r="N120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O120" t="n">
         <v>-0.1</v>
@@ -13752,7 +13758,7 @@
         <v>65</v>
       </c>
       <c r="Q120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -13761,7 +13767,7 @@
         <v>65</v>
       </c>
       <c r="T120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
@@ -13770,7 +13776,7 @@
         <v>65</v>
       </c>
       <c r="W120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="X120" t="n">
         <v>0.1</v>
@@ -13788,7 +13794,7 @@
         <v>60</v>
       </c>
       <c r="AC120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AD120" t="n">
         <v>0</v>
@@ -13797,15 +13803,15 @@
         <v>60</v>
       </c>
       <c r="AF120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C121" t="n">
         <v>-0.1</v>
@@ -13814,7 +13820,7 @@
         <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F121" t="n">
         <v>-0.1</v>
@@ -13823,7 +13829,7 @@
         <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I121" t="n">
         <v>-0.1</v>
@@ -13832,7 +13838,7 @@
         <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L121" t="n">
         <v>-0.1</v>
@@ -13841,7 +13847,7 @@
         <v>75</v>
       </c>
       <c r="N121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O121" t="n">
         <v>-0.1</v>
@@ -13850,7 +13856,7 @@
         <v>75</v>
       </c>
       <c r="Q121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R121" t="n">
         <v>-0.1</v>
@@ -13859,7 +13865,7 @@
         <v>75</v>
       </c>
       <c r="T121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U121" t="n">
         <v>-0.1</v>
@@ -13868,7 +13874,7 @@
         <v>75</v>
       </c>
       <c r="W121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X121" t="n">
         <v>-0.1</v>
@@ -13877,7 +13883,7 @@
         <v>75</v>
       </c>
       <c r="Z121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA121" t="n">
         <v>-0.1</v>
@@ -13886,7 +13892,7 @@
         <v>75</v>
       </c>
       <c r="AC121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD121" t="n">
         <v>-0.1</v>
@@ -13895,15 +13901,15 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1</v>
@@ -13912,7 +13918,7 @@
         <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F122" t="n">
         <v>-0.1</v>
@@ -13921,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I122" t="n">
         <v>-0.1</v>
@@ -13930,7 +13936,7 @@
         <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -13939,7 +13945,7 @@
         <v>50</v>
       </c>
       <c r="N122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -13948,7 +13954,7 @@
         <v>50</v>
       </c>
       <c r="Q122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R122" t="n">
         <v>-0.1</v>
@@ -13957,7 +13963,7 @@
         <v>70</v>
       </c>
       <c r="T122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U122" t="n">
         <v>-0.1</v>
@@ -13966,7 +13972,7 @@
         <v>70</v>
       </c>
       <c r="W122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="X122" t="n">
         <v>-0.1</v>
@@ -13975,7 +13981,7 @@
         <v>65</v>
       </c>
       <c r="Z122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA122" t="n">
         <v>-0.1</v>
@@ -13984,7 +13990,7 @@
         <v>65</v>
       </c>
       <c r="AC122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD122" t="n">
         <v>-0.1</v>
@@ -13993,15 +13999,15 @@
         <v>65</v>
       </c>
       <c r="AF122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -14096,10 +14102,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C124" t="n">
         <v>-0.1</v>
@@ -14108,7 +14114,7 @@
         <v>60</v>
       </c>
       <c r="E124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F124" t="n">
         <v>-0.1</v>
@@ -14117,7 +14123,7 @@
         <v>60</v>
       </c>
       <c r="H124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1</v>
@@ -14126,7 +14132,7 @@
         <v>60</v>
       </c>
       <c r="K124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L124" t="n">
         <v>-0.1</v>
@@ -14135,7 +14141,7 @@
         <v>70</v>
       </c>
       <c r="N124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O124" t="n">
         <v>-0.1</v>
@@ -14144,7 +14150,7 @@
         <v>70</v>
       </c>
       <c r="Q124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R124" t="n">
         <v>-0.1</v>
@@ -14153,7 +14159,7 @@
         <v>85</v>
       </c>
       <c r="T124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U124" t="n">
         <v>-0.1</v>
@@ -14162,7 +14168,7 @@
         <v>85</v>
       </c>
       <c r="W124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="X124" t="n">
         <v>-0.1</v>
@@ -14171,7 +14177,7 @@
         <v>75</v>
       </c>
       <c r="Z124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA124" t="n">
         <v>-0.1</v>
@@ -14180,7 +14186,7 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD124" t="n">
         <v>-0.1</v>
@@ -14189,15 +14195,15 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -14292,10 +14298,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C126" t="n">
         <v>-0.1</v>
@@ -14304,7 +14310,7 @@
         <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F126" t="n">
         <v>-0.1</v>
@@ -14313,7 +14319,7 @@
         <v>65</v>
       </c>
       <c r="H126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1</v>
@@ -14322,7 +14328,7 @@
         <v>65</v>
       </c>
       <c r="K126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L126" t="n">
         <v>-0.2</v>
@@ -14331,7 +14337,7 @@
         <v>65</v>
       </c>
       <c r="N126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O126" t="n">
         <v>-0.2</v>
@@ -14340,7 +14346,7 @@
         <v>65</v>
       </c>
       <c r="Q126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R126" t="n">
         <v>0.1</v>
@@ -14349,7 +14355,7 @@
         <v>55</v>
       </c>
       <c r="T126" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U126" t="n">
         <v>0.1</v>
@@ -14358,7 +14364,7 @@
         <v>55</v>
       </c>
       <c r="W126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X126" t="n">
         <v>-0.2</v>
@@ -14367,7 +14373,7 @@
         <v>70</v>
       </c>
       <c r="Z126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA126" t="n">
         <v>-0.2</v>
@@ -14376,7 +14382,7 @@
         <v>70</v>
       </c>
       <c r="AC126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AD126" t="n">
         <v>-0.2</v>
@@ -14385,15 +14391,15 @@
         <v>70</v>
       </c>
       <c r="AF126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C127" t="n">
         <v>-0.1</v>
@@ -14402,7 +14408,7 @@
         <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1</v>
@@ -14411,7 +14417,7 @@
         <v>75</v>
       </c>
       <c r="H127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I127" t="n">
         <v>-0.1</v>
@@ -14420,7 +14426,7 @@
         <v>75</v>
       </c>
       <c r="K127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L127" t="n">
         <v>-0.1</v>
@@ -14429,7 +14435,7 @@
         <v>70</v>
       </c>
       <c r="N127" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O127" t="n">
         <v>-0.1</v>
@@ -14438,7 +14444,7 @@
         <v>70</v>
       </c>
       <c r="Q127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R127" t="n">
         <v>-0.1</v>
@@ -14447,7 +14453,7 @@
         <v>75</v>
       </c>
       <c r="T127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U127" t="n">
         <v>-0.1</v>
@@ -14456,7 +14462,7 @@
         <v>75</v>
       </c>
       <c r="W127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X127" t="n">
         <v>-0.2</v>
@@ -14465,7 +14471,7 @@
         <v>75</v>
       </c>
       <c r="Z127" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA127" t="n">
         <v>-0.2</v>
@@ -14474,7 +14480,7 @@
         <v>75</v>
       </c>
       <c r="AC127" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD127" t="n">
         <v>-0.2</v>
@@ -14483,15 +14489,15 @@
         <v>75</v>
       </c>
       <c r="AF127" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C128" t="n">
         <v>-0.1</v>
@@ -14500,7 +14506,7 @@
         <v>65</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F128" t="n">
         <v>-0.1</v>
@@ -14509,7 +14515,7 @@
         <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I128" t="n">
         <v>-0.1</v>
@@ -14518,7 +14524,7 @@
         <v>65</v>
       </c>
       <c r="K128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L128" t="n">
         <v>-0.1</v>
@@ -14527,7 +14533,7 @@
         <v>65</v>
       </c>
       <c r="N128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O128" t="n">
         <v>-0.1</v>
@@ -14536,7 +14542,7 @@
         <v>65</v>
       </c>
       <c r="Q128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R128" t="n">
         <v>-0.1</v>
@@ -14545,7 +14551,7 @@
         <v>65</v>
       </c>
       <c r="T128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U128" t="n">
         <v>-0.1</v>
@@ -14554,7 +14560,7 @@
         <v>65</v>
       </c>
       <c r="W128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X128" t="n">
         <v>-0.1</v>
@@ -14563,7 +14569,7 @@
         <v>60</v>
       </c>
       <c r="Z128" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA128" t="n">
         <v>-0.1</v>
@@ -14572,7 +14578,7 @@
         <v>60</v>
       </c>
       <c r="AC128" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AD128" t="n">
         <v>-0.1</v>
@@ -14581,15 +14587,15 @@
         <v>60</v>
       </c>
       <c r="AF128" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C129" t="n">
         <v>-0.2</v>
@@ -14598,7 +14604,7 @@
         <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F129" t="n">
         <v>-0.2</v>
@@ -14607,7 +14613,7 @@
         <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I129" t="n">
         <v>-0.2</v>
@@ -14616,7 +14622,7 @@
         <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L129" t="n">
         <v>-0.1</v>
@@ -14625,7 +14631,7 @@
         <v>75</v>
       </c>
       <c r="N129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O129" t="n">
         <v>-0.1</v>
@@ -14634,7 +14640,7 @@
         <v>75</v>
       </c>
       <c r="Q129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R129" t="n">
         <v>-0.1</v>
@@ -14643,7 +14649,7 @@
         <v>65</v>
       </c>
       <c r="T129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U129" t="n">
         <v>-0.1</v>
@@ -14652,7 +14658,7 @@
         <v>65</v>
       </c>
       <c r="W129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X129" t="n">
         <v>-0.1</v>
@@ -14661,7 +14667,7 @@
         <v>75</v>
       </c>
       <c r="Z129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1</v>
@@ -14670,7 +14676,7 @@
         <v>75</v>
       </c>
       <c r="AC129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD129" t="n">
         <v>-0.1</v>
@@ -14679,15 +14685,15 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C130" t="n">
         <v>-0.1</v>
@@ -14696,7 +14702,7 @@
         <v>65</v>
       </c>
       <c r="E130" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F130" t="n">
         <v>-0.1</v>
@@ -14705,7 +14711,7 @@
         <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I130" t="n">
         <v>-0.1</v>
@@ -14714,7 +14720,7 @@
         <v>65</v>
       </c>
       <c r="K130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L130" t="n">
         <v>-0.1</v>
@@ -14723,7 +14729,7 @@
         <v>70</v>
       </c>
       <c r="N130" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O130" t="n">
         <v>-0.1</v>
@@ -14732,7 +14738,7 @@
         <v>70</v>
       </c>
       <c r="Q130" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R130" t="n">
         <v>-0.1</v>
@@ -14741,7 +14747,7 @@
         <v>75</v>
       </c>
       <c r="T130" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U130" t="n">
         <v>-0.1</v>
@@ -14750,7 +14756,7 @@
         <v>75</v>
       </c>
       <c r="W130" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X130" t="n">
         <v>-0.1</v>
@@ -14759,7 +14765,7 @@
         <v>85</v>
       </c>
       <c r="Z130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA130" t="n">
         <v>-0.1</v>
@@ -14768,7 +14774,7 @@
         <v>85</v>
       </c>
       <c r="AC130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD130" t="n">
         <v>-0.1</v>
@@ -14777,15 +14783,15 @@
         <v>85</v>
       </c>
       <c r="AF130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C131" t="n">
         <v>-0.1</v>
@@ -14794,7 +14800,7 @@
         <v>65</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F131" t="n">
         <v>-0.1</v>
@@ -14803,7 +14809,7 @@
         <v>65</v>
       </c>
       <c r="H131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I131" t="n">
         <v>-0.1</v>
@@ -14812,7 +14818,7 @@
         <v>65</v>
       </c>
       <c r="K131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L131" t="n">
         <v>-0.1</v>
@@ -14821,7 +14827,7 @@
         <v>55</v>
       </c>
       <c r="N131" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O131" t="n">
         <v>-0.1</v>
@@ -14830,7 +14836,7 @@
         <v>55</v>
       </c>
       <c r="Q131" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R131" t="n">
         <v>-0.1</v>
@@ -14839,7 +14845,7 @@
         <v>60</v>
       </c>
       <c r="T131" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U131" t="n">
         <v>-0.1</v>
@@ -14848,7 +14854,7 @@
         <v>60</v>
       </c>
       <c r="W131" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X131" t="n">
         <v>-0.1</v>
@@ -14857,7 +14863,7 @@
         <v>65</v>
       </c>
       <c r="Z131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA131" t="n">
         <v>-0.1</v>
@@ -14866,7 +14872,7 @@
         <v>65</v>
       </c>
       <c r="AC131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD131" t="n">
         <v>-0.1</v>
@@ -14875,7 +14881,7 @@
         <v>65</v>
       </c>
       <c r="AF131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
